--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H2">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I2">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J2">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N2">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O2">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P2">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q2">
-        <v>156.8821419230698</v>
+        <v>80.00195465107377</v>
       </c>
       <c r="R2">
-        <v>1411.939277307628</v>
+        <v>720.017591859664</v>
       </c>
       <c r="S2">
-        <v>0.002020912211615324</v>
+        <v>0.0009991611883707716</v>
       </c>
       <c r="T2">
-        <v>0.002484928265357583</v>
+        <v>0.001208602001297361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H3">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I3">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J3">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N3">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O3">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P3">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q3">
-        <v>622.5155599115245</v>
+        <v>333.8758557660088</v>
       </c>
       <c r="R3">
-        <v>5602.640039203719</v>
+        <v>3004.88270189408</v>
       </c>
       <c r="S3">
-        <v>0.00801907267152599</v>
+        <v>0.004169845577779221</v>
       </c>
       <c r="T3">
-        <v>0.009860309729883754</v>
+        <v>0.00504391460463212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H4">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I4">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J4">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N4">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O4">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P4">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q4">
-        <v>230.0966628842474</v>
+        <v>188.6126219598879</v>
       </c>
       <c r="R4">
-        <v>2070.869965958226</v>
+        <v>1697.513597638992</v>
       </c>
       <c r="S4">
-        <v>0.002964041350880678</v>
+        <v>0.002355622588486835</v>
       </c>
       <c r="T4">
-        <v>0.003644606673243292</v>
+        <v>0.002849400284841711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H5">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I5">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J5">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N5">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O5">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P5">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q5">
-        <v>226.5629463995467</v>
+        <v>218.6699960445093</v>
       </c>
       <c r="R5">
-        <v>1359.37767839728</v>
+        <v>1312.019976267056</v>
       </c>
       <c r="S5">
-        <v>0.002918520995862706</v>
+        <v>0.002731015436582603</v>
       </c>
       <c r="T5">
-        <v>0.002392423010419303</v>
+        <v>0.002202321147408222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H6">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I6">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J6">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N6">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O6">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P6">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q6">
-        <v>260.4350336485364</v>
+        <v>177.4918001827911</v>
       </c>
       <c r="R6">
-        <v>2343.915302836828</v>
+        <v>1597.42620164512</v>
       </c>
       <c r="S6">
-        <v>0.003354851823038372</v>
+        <v>0.00221673231323136</v>
       </c>
       <c r="T6">
-        <v>0.004125150055128327</v>
+        <v>0.002681396296508031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>168.19535</v>
       </c>
       <c r="I7">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J7">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N7">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O7">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P7">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q7">
-        <v>4466.383153054346</v>
+        <v>4246.667530316773</v>
       </c>
       <c r="R7">
-        <v>40197.44837748911</v>
+        <v>38220.00777285096</v>
       </c>
       <c r="S7">
-        <v>0.05753470818996492</v>
+        <v>0.05303752132948574</v>
       </c>
       <c r="T7">
-        <v>0.07074509313102126</v>
+        <v>0.0641550684401495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>168.19535</v>
       </c>
       <c r="I8">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J8">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N8">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O8">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P8">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q8">
         <v>17722.81392401211</v>
@@ -948,10 +948,10 @@
         <v>159505.325316109</v>
       </c>
       <c r="S8">
-        <v>0.2283003702281511</v>
+        <v>0.2213439396427588</v>
       </c>
       <c r="T8">
-        <v>0.28071978570414</v>
+        <v>0.2677413129542116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>168.19535</v>
       </c>
       <c r="I9">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J9">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N9">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O9">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P9">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q9">
-        <v>6550.776564385385</v>
+        <v>10011.94409534615</v>
       </c>
       <c r="R9">
-        <v>58956.98907946846</v>
+        <v>90107.49685811535</v>
       </c>
       <c r="S9">
-        <v>0.0843852856179238</v>
+        <v>0.1250412693519548</v>
       </c>
       <c r="T9">
-        <v>0.1037607572496404</v>
+        <v>0.1512520003203477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>168.19535</v>
       </c>
       <c r="I10">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J10">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N10">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O10">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P10">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q10">
-        <v>6450.172814452667</v>
+        <v>11607.45104425084</v>
       </c>
       <c r="R10">
-        <v>38701.036886716</v>
+        <v>69644.70626550505</v>
       </c>
       <c r="S10">
-        <v>0.08308933603257826</v>
+        <v>0.1449678902210868</v>
       </c>
       <c r="T10">
-        <v>0.06811149884705277</v>
+        <v>0.1169037150257047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>168.19535</v>
       </c>
       <c r="I11">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J11">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N11">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O11">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P11">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q11">
-        <v>7414.500034831012</v>
+        <v>9421.628109227891</v>
       </c>
       <c r="R11">
-        <v>66730.5003134791</v>
+        <v>84794.65298305101</v>
       </c>
       <c r="S11">
-        <v>0.09551153164877084</v>
+        <v>0.1176686892096736</v>
       </c>
       <c r="T11">
-        <v>0.1174416698051023</v>
+        <v>0.1423340046872151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H12">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I12">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J12">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N12">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O12">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P12">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q12">
-        <v>8.261204993469557</v>
+        <v>3.453807679431222</v>
       </c>
       <c r="R12">
-        <v>74.350844941226</v>
+        <v>31.084269114881</v>
       </c>
       <c r="S12">
-        <v>0.0001064185499337899</v>
+        <v>4.313532838585813E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001308530183394121</v>
+        <v>5.21772110651892E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H13">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I13">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J13">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N13">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O13">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P13">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q13">
-        <v>32.78084164974889</v>
+        <v>14.41393525509111</v>
       </c>
       <c r="R13">
-        <v>295.0275748477399</v>
+        <v>129.72541729582</v>
       </c>
       <c r="S13">
-        <v>0.0004222737042275427</v>
+        <v>0.0001800186600613626</v>
       </c>
       <c r="T13">
-        <v>0.0005192307994979865</v>
+        <v>0.0002177535670453759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H14">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I14">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J14">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N14">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O14">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P14">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q14">
-        <v>12.11658431672967</v>
+        <v>8.142697575376999</v>
       </c>
       <c r="R14">
-        <v>109.049258850567</v>
+        <v>73.284278178393</v>
       </c>
       <c r="S14">
-        <v>0.0001560824763646659</v>
+        <v>0.0001016958575755034</v>
       </c>
       <c r="T14">
-        <v>0.0001919201413185345</v>
+        <v>0.0001230130017257988</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H15">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I15">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J15">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N15">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O15">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P15">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q15">
-        <v>11.93050350529333</v>
+        <v>9.440320738333167</v>
       </c>
       <c r="R15">
-        <v>71.58302103175998</v>
+        <v>56.64192442999899</v>
       </c>
       <c r="S15">
-        <v>0.000153685434996099</v>
+        <v>0.0001179021453744894</v>
       </c>
       <c r="T15">
-        <v>0.0001259818146150708</v>
+        <v>9.507759809953854E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H16">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I16">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J16">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N16">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O16">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P16">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q16">
-        <v>13.71416258140289</v>
+        <v>7.662594560108889</v>
       </c>
       <c r="R16">
-        <v>123.427463232626</v>
+        <v>68.96335104098</v>
       </c>
       <c r="S16">
-        <v>0.000176662036182714</v>
+        <v>9.569975033827562E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002172249168483976</v>
+        <v>0.0001157600106256101</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H17">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I17">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J17">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N17">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O17">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P17">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q17">
-        <v>3503.690131696536</v>
+        <v>2082.107784791826</v>
       </c>
       <c r="R17">
-        <v>21022.14079017922</v>
+        <v>12492.64670875096</v>
       </c>
       <c r="S17">
-        <v>0.04513356387200378</v>
+        <v>0.02600388075069006</v>
       </c>
       <c r="T17">
-        <v>0.03699770428332762</v>
+        <v>0.02096981793833743</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H18">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I18">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J18">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N18">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O18">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P18">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q18">
-        <v>13902.80370572132</v>
+        <v>8689.356672301126</v>
       </c>
       <c r="R18">
-        <v>83416.82223432789</v>
+        <v>52136.14003380676</v>
       </c>
       <c r="S18">
-        <v>0.1790920587912458</v>
+        <v>0.1085231976736128</v>
       </c>
       <c r="T18">
-        <v>0.1468085934769472</v>
+        <v>0.08751431061848243</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H19">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I19">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J19">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N19">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O19">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P19">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q19">
-        <v>5138.80928193326</v>
+        <v>4908.777669314228</v>
       </c>
       <c r="R19">
-        <v>30832.85569159956</v>
+        <v>29452.66601588537</v>
       </c>
       <c r="S19">
-        <v>0.06619671495888695</v>
+        <v>0.06130675370259946</v>
       </c>
       <c r="T19">
-        <v>0.05426397285005485</v>
+        <v>0.04943844635573826</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H20">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I20">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J20">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N20">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O20">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P20">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q20">
-        <v>5059.88986240028</v>
+        <v>5691.04221328622</v>
       </c>
       <c r="R20">
-        <v>20239.55944960112</v>
+        <v>22764.16885314488</v>
       </c>
       <c r="S20">
-        <v>0.06518009689954149</v>
+        <v>0.07107661963630493</v>
       </c>
       <c r="T20">
-        <v>0.03562040815990499</v>
+        <v>0.03821131642453589</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H21">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I21">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J21">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N21">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O21">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P21">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q21">
-        <v>5816.364094454336</v>
+        <v>4619.350370989274</v>
       </c>
       <c r="R21">
-        <v>34898.18456672602</v>
+        <v>27716.10222593564</v>
       </c>
       <c r="S21">
-        <v>0.07492478800708659</v>
+        <v>0.05769203547974386</v>
       </c>
       <c r="T21">
-        <v>0.06141870732917443</v>
+        <v>0.04652349747720746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H22">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J22">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N22">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O22">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P22">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q22">
-        <v>2.921791071794889</v>
+        <v>2.099886184897</v>
       </c>
       <c r="R22">
-        <v>26.296119646154</v>
+        <v>18.898975664073</v>
       </c>
       <c r="S22">
-        <v>3.763770168101347E-05</v>
+        <v>2.622591891780599E-05</v>
       </c>
       <c r="T22">
-        <v>4.62795900844651E-05</v>
+        <v>3.172330796956511E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H23">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J23">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N23">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O23">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P23">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q23">
-        <v>11.59380145316222</v>
+        <v>8.763552091339999</v>
       </c>
       <c r="R23">
-        <v>104.34421307846</v>
+        <v>78.87196882206001</v>
       </c>
       <c r="S23">
-        <v>0.0001493481326079064</v>
+        <v>0.0001094498398210688</v>
       </c>
       <c r="T23">
-        <v>0.0001836395435500495</v>
+        <v>0.0001323923476902829</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H24">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J24">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N24">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O24">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P24">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q24">
-        <v>4.285346738793667</v>
+        <v>4.950692028440999</v>
       </c>
       <c r="R24">
-        <v>38.568120649143</v>
+        <v>44.556228255969</v>
       </c>
       <c r="S24">
-        <v>5.520264734580674E-05</v>
+        <v>6.183023092334435E-05</v>
       </c>
       <c r="T24">
-        <v>6.787757425767529E-05</v>
+        <v>7.479087629142543E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H25">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J25">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N25">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O25">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P25">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q25">
-        <v>4.219534396173333</v>
+        <v>5.7396360594945</v>
       </c>
       <c r="R25">
-        <v>25.31720637704</v>
+        <v>34.437816356967</v>
       </c>
       <c r="S25">
-        <v>5.435487101354794E-05</v>
+        <v>7.168351837192625E-05</v>
       </c>
       <c r="T25">
-        <v>4.455676156708476E-05</v>
+        <v>5.780638451046852E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H26">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J26">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N26">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O26">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P26">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q26">
-        <v>4.850372048528222</v>
+        <v>4.65879341026</v>
       </c>
       <c r="R26">
-        <v>43.653348436754</v>
+        <v>41.92914069234001</v>
       </c>
       <c r="S26">
-        <v>6.248114657023873E-05</v>
+        <v>5.818464786856085E-05</v>
       </c>
       <c r="T26">
-        <v>7.682726952312062E-05</v>
+        <v>7.038111835928276E-05</v>
       </c>
     </row>
   </sheetData>
